--- a/Team-Data/2012-13/2-11-2012-13.xlsx
+++ b/Team-Data/2012-13/2-11-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,28 +733,28 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" t="n">
         <v>22</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.551</v>
       </c>
       <c r="H2" t="n">
         <v>48.6</v>
       </c>
       <c r="I2" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J2" t="n">
-        <v>80.5</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>0.461</v>
+        <v>0.459</v>
       </c>
       <c r="L2" t="n">
         <v>8.9</v>
@@ -696,13 +763,13 @@
         <v>23.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0.384</v>
+        <v>0.385</v>
       </c>
       <c r="O2" t="n">
         <v>13.6</v>
       </c>
       <c r="P2" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="Q2" t="n">
         <v>0.701</v>
@@ -711,10 +778,10 @@
         <v>9.4</v>
       </c>
       <c r="S2" t="n">
-        <v>31.2</v>
+        <v>31</v>
       </c>
       <c r="T2" t="n">
-        <v>40.6</v>
+        <v>40.4</v>
       </c>
       <c r="U2" t="n">
         <v>23.8</v>
@@ -729,25 +796,25 @@
         <v>4.9</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="AA2" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.7</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE2" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AF2" t="n">
         <v>11</v>
@@ -759,13 +826,13 @@
         <v>8</v>
       </c>
       <c r="AI2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ2" t="n">
         <v>26</v>
       </c>
       <c r="AK2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL2" t="n">
         <v>3</v>
@@ -774,13 +841,13 @@
         <v>5</v>
       </c>
       <c r="AN2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO2" t="n">
         <v>28</v>
       </c>
       <c r="AP2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ2" t="n">
         <v>27</v>
@@ -789,7 +856,7 @@
         <v>27</v>
       </c>
       <c r="AS2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT2" t="n">
         <v>26</v>
@@ -798,10 +865,10 @@
         <v>3</v>
       </c>
       <c r="AV2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AW2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX2" t="n">
         <v>19</v>
@@ -816,7 +883,7 @@
         <v>24</v>
       </c>
       <c r="BB2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC2" t="n">
         <v>13</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-11-2012-13</t>
+          <t>2013-02-11</t>
         </is>
       </c>
     </row>
@@ -848,67 +915,67 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E3" t="n">
         <v>27</v>
       </c>
       <c r="F3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G3" t="n">
-        <v>0.529</v>
+        <v>0.54</v>
       </c>
       <c r="H3" t="n">
         <v>49.4</v>
       </c>
       <c r="I3" t="n">
-        <v>37</v>
+        <v>37.1</v>
       </c>
       <c r="J3" t="n">
         <v>80.59999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.459</v>
+        <v>0.46</v>
       </c>
       <c r="L3" t="n">
         <v>5.6</v>
       </c>
       <c r="M3" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0.34</v>
+        <v>0.339</v>
       </c>
       <c r="O3" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="P3" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.784</v>
+        <v>0.783</v>
       </c>
       <c r="R3" t="n">
         <v>8.6</v>
       </c>
       <c r="S3" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="T3" t="n">
         <v>40</v>
       </c>
       <c r="U3" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="V3" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W3" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X3" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Y3" t="n">
         <v>4.8</v>
@@ -920,34 +987,34 @@
         <v>20</v>
       </c>
       <c r="AB3" t="n">
-        <v>96.3</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE3" t="n">
         <v>14</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>15</v>
       </c>
       <c r="AF3" t="n">
         <v>13</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH3" t="n">
         <v>1</v>
       </c>
       <c r="AI3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ3" t="n">
         <v>25</v>
       </c>
       <c r="AK3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL3" t="n">
         <v>27</v>
@@ -959,10 +1026,10 @@
         <v>27</v>
       </c>
       <c r="AO3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ3" t="n">
         <v>6</v>
@@ -980,19 +1047,19 @@
         <v>4</v>
       </c>
       <c r="AV3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AW3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY3" t="n">
         <v>12</v>
       </c>
       <c r="AZ3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA3" t="n">
         <v>14</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-11-2012-13</t>
+          <t>2013-02-11</t>
         </is>
       </c>
     </row>
@@ -1030,61 +1097,61 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" t="n">
         <v>22</v>
       </c>
       <c r="G4" t="n">
-        <v>0.577</v>
+        <v>0.569</v>
       </c>
       <c r="H4" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="I4" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="J4" t="n">
         <v>79.09999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0.439</v>
+        <v>0.44</v>
       </c>
       <c r="L4" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="M4" t="n">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="N4" t="n">
         <v>0.346</v>
       </c>
       <c r="O4" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="P4" t="n">
-        <v>24.1</v>
+        <v>23.9</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.741</v>
+        <v>0.742</v>
       </c>
       <c r="R4" t="n">
         <v>12.5</v>
       </c>
       <c r="S4" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="T4" t="n">
-        <v>42.3</v>
+        <v>42.1</v>
       </c>
       <c r="U4" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="V4" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W4" t="n">
         <v>7.1</v>
@@ -1099,19 +1166,19 @@
         <v>18.2</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AB4" t="n">
-        <v>94.7</v>
+        <v>94.8</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AF4" t="n">
         <v>11</v>
@@ -1120,7 +1187,7 @@
         <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI4" t="n">
         <v>28</v>
@@ -1129,22 +1196,22 @@
         <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM4" t="n">
         <v>7</v>
       </c>
       <c r="AN4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO4" t="n">
         <v>8</v>
       </c>
       <c r="AP4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ4" t="n">
         <v>21</v>
@@ -1153,13 +1220,13 @@
         <v>9</v>
       </c>
       <c r="AS4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU4" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AV4" t="n">
         <v>13</v>
@@ -1171,7 +1238,7 @@
         <v>20</v>
       </c>
       <c r="AY4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ4" t="n">
         <v>2</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-11-2012-13</t>
+          <t>2013-02-11</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" t="n">
         <v>39</v>
       </c>
       <c r="G5" t="n">
-        <v>0.235</v>
+        <v>0.22</v>
       </c>
       <c r="H5" t="n">
         <v>48.5</v>
@@ -1230,7 +1297,7 @@
         <v>34.5</v>
       </c>
       <c r="J5" t="n">
-        <v>81.59999999999999</v>
+        <v>81.7</v>
       </c>
       <c r="K5" t="n">
         <v>0.423</v>
@@ -1242,37 +1309,37 @@
         <v>16.4</v>
       </c>
       <c r="N5" t="n">
-        <v>0.348</v>
+        <v>0.346</v>
       </c>
       <c r="O5" t="n">
         <v>19.4</v>
       </c>
       <c r="P5" t="n">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.752</v>
+        <v>0.754</v>
       </c>
       <c r="R5" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="S5" t="n">
-        <v>29.6</v>
+        <v>29.4</v>
       </c>
       <c r="T5" t="n">
-        <v>40.9</v>
+        <v>40.8</v>
       </c>
       <c r="U5" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="V5" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W5" t="n">
         <v>7.3</v>
       </c>
       <c r="X5" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="Y5" t="n">
         <v>7.5</v>
@@ -1281,16 +1348,16 @@
         <v>19.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="AB5" t="n">
         <v>94.09999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>-8.6</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="AD5" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AE5" t="n">
         <v>30</v>
@@ -1302,25 +1369,25 @@
         <v>30</v>
       </c>
       <c r="AH5" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI5" t="n">
         <v>30</v>
       </c>
       <c r="AJ5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK5" t="n">
         <v>30</v>
       </c>
       <c r="AL5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM5" t="n">
         <v>28</v>
       </c>
       <c r="AN5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO5" t="n">
         <v>2</v>
@@ -1329,16 +1396,16 @@
         <v>4</v>
       </c>
       <c r="AQ5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR5" t="n">
         <v>15</v>
       </c>
       <c r="AS5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AT5" t="n">
         <v>25</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>22</v>
       </c>
       <c r="AU5" t="n">
         <v>30</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-11-2012-13</t>
+          <t>2013-02-11</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E6" t="n">
         <v>30</v>
       </c>
       <c r="F6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G6" t="n">
-        <v>0.588</v>
+        <v>0.6</v>
       </c>
       <c r="H6" t="n">
         <v>48.4</v>
@@ -1412,43 +1479,43 @@
         <v>35.7</v>
       </c>
       <c r="J6" t="n">
-        <v>81.3</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K6" t="n">
         <v>0.439</v>
       </c>
       <c r="L6" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="M6" t="n">
         <v>13.8</v>
       </c>
       <c r="N6" t="n">
-        <v>0.348</v>
+        <v>0.351</v>
       </c>
       <c r="O6" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="P6" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.78</v>
+        <v>0.783</v>
       </c>
       <c r="R6" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="S6" t="n">
         <v>30.8</v>
       </c>
       <c r="T6" t="n">
-        <v>43.6</v>
+        <v>43.5</v>
       </c>
       <c r="U6" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="V6" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="W6" t="n">
         <v>7.2</v>
@@ -1457,22 +1524,22 @@
         <v>5.4</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AA6" t="n">
         <v>20.3</v>
       </c>
       <c r="AB6" t="n">
-        <v>93.59999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AE6" t="n">
         <v>9</v>
@@ -1484,7 +1551,7 @@
         <v>9</v>
       </c>
       <c r="AH6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI6" t="n">
         <v>25</v>
@@ -1493,7 +1560,7 @@
         <v>20</v>
       </c>
       <c r="AK6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL6" t="n">
         <v>29</v>
@@ -1502,10 +1569,10 @@
         <v>29</v>
       </c>
       <c r="AN6" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AO6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP6" t="n">
         <v>15</v>
@@ -1517,25 +1584,25 @@
         <v>7</v>
       </c>
       <c r="AS6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AV6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AW6" t="n">
         <v>22</v>
       </c>
       <c r="AX6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ6" t="n">
         <v>13</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-11-2012-13</t>
+          <t>2013-02-11</t>
         </is>
       </c>
     </row>
@@ -1576,91 +1643,91 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
       </c>
       <c r="F7" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7" t="n">
-        <v>0.308</v>
+        <v>0.314</v>
       </c>
       <c r="H7" t="n">
         <v>48.2</v>
       </c>
       <c r="I7" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="J7" t="n">
-        <v>84.59999999999999</v>
+        <v>84.7</v>
       </c>
       <c r="K7" t="n">
-        <v>0.43</v>
+        <v>0.428</v>
       </c>
       <c r="L7" t="n">
         <v>7.3</v>
       </c>
       <c r="M7" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="N7" t="n">
-        <v>0.354</v>
+        <v>0.355</v>
       </c>
       <c r="O7" t="n">
-        <v>17</v>
+        <v>17.2</v>
       </c>
       <c r="P7" t="n">
-        <v>22.4</v>
+        <v>22.6</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.759</v>
+        <v>0.761</v>
       </c>
       <c r="R7" t="n">
         <v>12.6</v>
       </c>
       <c r="S7" t="n">
-        <v>28.4</v>
+        <v>28.6</v>
       </c>
       <c r="T7" t="n">
-        <v>41</v>
+        <v>41.2</v>
       </c>
       <c r="U7" t="n">
         <v>20.3</v>
       </c>
       <c r="V7" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="W7" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="X7" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Y7" t="n">
         <v>7.1</v>
       </c>
       <c r="Z7" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AA7" t="n">
         <v>20.3</v>
       </c>
       <c r="AB7" t="n">
-        <v>97</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC7" t="n">
-        <v>-4.4</v>
+        <v>-4.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE7" t="n">
         <v>27</v>
       </c>
       <c r="AF7" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AG7" t="n">
         <v>27</v>
@@ -1669,13 +1736,13 @@
         <v>26</v>
       </c>
       <c r="AI7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ7" t="n">
         <v>3</v>
       </c>
       <c r="AK7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL7" t="n">
         <v>12</v>
@@ -1687,7 +1754,7 @@
         <v>12</v>
       </c>
       <c r="AO7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP7" t="n">
         <v>13</v>
@@ -1702,13 +1769,13 @@
         <v>29</v>
       </c>
       <c r="AT7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU7" t="n">
         <v>25</v>
       </c>
       <c r="AV7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW7" t="n">
         <v>12</v>
@@ -1720,7 +1787,7 @@
         <v>29</v>
       </c>
       <c r="AZ7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA7" t="n">
         <v>13</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-11-2012-13</t>
+          <t>2013-02-11</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8" t="n">
         <v>22</v>
       </c>
       <c r="F8" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G8" t="n">
-        <v>0.431</v>
+        <v>0.44</v>
       </c>
       <c r="H8" t="n">
         <v>49</v>
@@ -1776,7 +1843,7 @@
         <v>38.2</v>
       </c>
       <c r="J8" t="n">
-        <v>84.3</v>
+        <v>84.2</v>
       </c>
       <c r="K8" t="n">
         <v>0.453</v>
@@ -1785,13 +1852,13 @@
         <v>7.1</v>
       </c>
       <c r="M8" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="N8" t="n">
-        <v>0.367</v>
+        <v>0.366</v>
       </c>
       <c r="O8" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="P8" t="n">
         <v>22</v>
@@ -1803,10 +1870,10 @@
         <v>9.5</v>
       </c>
       <c r="S8" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="T8" t="n">
-        <v>42.3</v>
+        <v>42.4</v>
       </c>
       <c r="U8" t="n">
         <v>22.6</v>
@@ -1818,13 +1885,13 @@
         <v>7.8</v>
       </c>
       <c r="X8" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y8" t="n">
         <v>4.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AA8" t="n">
         <v>19.5</v>
@@ -1833,16 +1900,16 @@
         <v>100.9</v>
       </c>
       <c r="AC8" t="n">
-        <v>-1.9</v>
+        <v>-1.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AE8" t="n">
         <v>19</v>
       </c>
       <c r="AF8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG8" t="n">
         <v>20</v>
@@ -1866,7 +1933,7 @@
         <v>14</v>
       </c>
       <c r="AN8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO8" t="n">
         <v>9</v>
@@ -1881,10 +1948,10 @@
         <v>26</v>
       </c>
       <c r="AS8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU8" t="n">
         <v>11</v>
@@ -1899,7 +1966,7 @@
         <v>13</v>
       </c>
       <c r="AY8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ8" t="n">
         <v>24</v>
@@ -1911,7 +1978,7 @@
         <v>7</v>
       </c>
       <c r="BC8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-11-2012-13</t>
+          <t>2013-02-11</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>3.9</v>
       </c>
       <c r="AD9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE9" t="n">
         <v>5</v>
@@ -2084,7 +2151,7 @@
         <v>28</v>
       </c>
       <c r="AZ9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA9" t="n">
         <v>3</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-11-2012-13</t>
+          <t>2013-02-11</t>
         </is>
       </c>
     </row>
@@ -2122,43 +2189,43 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E10" t="n">
         <v>20</v>
       </c>
       <c r="F10" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G10" t="n">
-        <v>0.377</v>
+        <v>0.385</v>
       </c>
       <c r="H10" t="n">
         <v>48.5</v>
       </c>
       <c r="I10" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="J10" t="n">
         <v>81.7</v>
       </c>
       <c r="K10" t="n">
-        <v>0.446</v>
+        <v>0.447</v>
       </c>
       <c r="L10" t="n">
         <v>6.1</v>
       </c>
       <c r="M10" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="N10" t="n">
-        <v>0.362</v>
+        <v>0.365</v>
       </c>
       <c r="O10" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="P10" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="Q10" t="n">
         <v>0.697</v>
@@ -2167,64 +2234,64 @@
         <v>12.8</v>
       </c>
       <c r="S10" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="T10" t="n">
-        <v>43.7</v>
+        <v>43.8</v>
       </c>
       <c r="U10" t="n">
         <v>20.6</v>
       </c>
       <c r="V10" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W10" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="X10" t="n">
         <v>5.7</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z10" t="n">
         <v>19.7</v>
       </c>
       <c r="AA10" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AB10" t="n">
-        <v>95.2</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1.9</v>
+        <v>-1.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE10" t="n">
         <v>21</v>
       </c>
       <c r="AF10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL10" t="n">
         <v>22</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>20</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>16</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>16</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>23</v>
       </c>
       <c r="AM10" t="n">
         <v>25</v>
@@ -2233,7 +2300,7 @@
         <v>11</v>
       </c>
       <c r="AO10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP10" t="n">
         <v>10</v>
@@ -2245,7 +2312,7 @@
         <v>6</v>
       </c>
       <c r="AS10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT10" t="n">
         <v>5</v>
@@ -2257,7 +2324,7 @@
         <v>21</v>
       </c>
       <c r="AW10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AX10" t="n">
         <v>8</v>
@@ -2266,7 +2333,7 @@
         <v>19</v>
       </c>
       <c r="AZ10" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA10" t="n">
         <v>10</v>
@@ -2275,7 +2342,7 @@
         <v>19</v>
       </c>
       <c r="BC10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-11-2012-13</t>
+          <t>2013-02-11</t>
         </is>
       </c>
     </row>
@@ -2382,22 +2449,22 @@
         <v>-0.1</v>
       </c>
       <c r="AD11" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AE11" t="n">
         <v>9</v>
       </c>
       <c r="AF11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ11" t="n">
         <v>8</v>
@@ -2415,10 +2482,10 @@
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ11" t="n">
         <v>2</v>
@@ -2433,13 +2500,13 @@
         <v>4</v>
       </c>
       <c r="AU11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW11" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX11" t="n">
         <v>28</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-11-2012-13</t>
+          <t>2013-02-11</t>
         </is>
       </c>
     </row>
@@ -2564,13 +2631,13 @@
         <v>3</v>
       </c>
       <c r="AD12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE12" t="n">
         <v>12</v>
       </c>
       <c r="AF12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG12" t="n">
         <v>15</v>
@@ -2594,7 +2661,7 @@
         <v>2</v>
       </c>
       <c r="AN12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO12" t="n">
         <v>3</v>
@@ -2615,7 +2682,7 @@
         <v>11</v>
       </c>
       <c r="AU12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV12" t="n">
         <v>30</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-11-2012-13</t>
+          <t>2013-02-11</t>
         </is>
       </c>
     </row>
@@ -2668,61 +2735,61 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E13" t="n">
         <v>31</v>
       </c>
       <c r="F13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G13" t="n">
-        <v>0.596</v>
+        <v>0.608</v>
       </c>
       <c r="H13" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="I13" t="n">
         <v>34.7</v>
       </c>
       <c r="J13" t="n">
-        <v>80.90000000000001</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K13" t="n">
-        <v>0.429</v>
+        <v>0.431</v>
       </c>
       <c r="L13" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="M13" t="n">
         <v>19.3</v>
       </c>
       <c r="N13" t="n">
-        <v>0.348</v>
+        <v>0.351</v>
       </c>
       <c r="O13" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="P13" t="n">
         <v>22.3</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.743</v>
+        <v>0.744</v>
       </c>
       <c r="R13" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="S13" t="n">
         <v>32.7</v>
       </c>
       <c r="T13" t="n">
-        <v>45.7</v>
+        <v>45.5</v>
       </c>
       <c r="U13" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="V13" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W13" t="n">
         <v>6.8</v>
@@ -2734,19 +2801,19 @@
         <v>5.7</v>
       </c>
       <c r="Z13" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AA13" t="n">
         <v>21.1</v>
       </c>
       <c r="AB13" t="n">
-        <v>92.7</v>
+        <v>92.8</v>
       </c>
       <c r="AC13" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="AD13" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE13" t="n">
         <v>8</v>
@@ -2758,16 +2825,16 @@
         <v>8</v>
       </c>
       <c r="AH13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI13" t="n">
         <v>29</v>
       </c>
       <c r="AJ13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL13" t="n">
         <v>16</v>
@@ -2776,7 +2843,7 @@
         <v>16</v>
       </c>
       <c r="AN13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO13" t="n">
         <v>18</v>
@@ -2788,7 +2855,7 @@
         <v>20</v>
       </c>
       <c r="AR13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS13" t="n">
         <v>6</v>
@@ -2800,7 +2867,7 @@
         <v>26</v>
       </c>
       <c r="AV13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW13" t="n">
         <v>26</v>
@@ -2812,7 +2879,7 @@
         <v>20</v>
       </c>
       <c r="AZ13" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA13" t="n">
         <v>6</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-11-2012-13</t>
+          <t>2013-02-11</t>
         </is>
       </c>
     </row>
@@ -2850,28 +2917,28 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E14" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F14" t="n">
         <v>17</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.679</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
       </c>
       <c r="I14" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="J14" t="n">
-        <v>80.7</v>
+        <v>80.8</v>
       </c>
       <c r="K14" t="n">
-        <v>0.472</v>
+        <v>0.47</v>
       </c>
       <c r="L14" t="n">
         <v>7</v>
@@ -2880,16 +2947,16 @@
         <v>20</v>
       </c>
       <c r="N14" t="n">
-        <v>0.351</v>
+        <v>0.35</v>
       </c>
       <c r="O14" t="n">
-        <v>16.6</v>
+        <v>16.8</v>
       </c>
       <c r="P14" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.702</v>
+        <v>0.705</v>
       </c>
       <c r="R14" t="n">
         <v>11.6</v>
@@ -2901,31 +2968,31 @@
         <v>41.9</v>
       </c>
       <c r="U14" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="V14" t="n">
         <v>14.7</v>
       </c>
       <c r="W14" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="X14" t="n">
         <v>5.9</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA14" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AB14" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -2943,10 +3010,10 @@
         <v>30</v>
       </c>
       <c r="AI14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK14" t="n">
         <v>4</v>
@@ -2958,10 +3025,10 @@
         <v>11</v>
       </c>
       <c r="AN14" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AO14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP14" t="n">
         <v>9</v>
@@ -2973,13 +3040,13 @@
         <v>13</v>
       </c>
       <c r="AS14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV14" t="n">
         <v>16</v>
@@ -2991,7 +3058,7 @@
         <v>7</v>
       </c>
       <c r="AY14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ14" t="n">
         <v>23</v>
@@ -3003,7 +3070,7 @@
         <v>10</v>
       </c>
       <c r="BC14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-11-2012-13</t>
+          <t>2013-02-11</t>
         </is>
       </c>
     </row>
@@ -3110,13 +3177,13 @@
         <v>1.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE15" t="n">
         <v>18</v>
       </c>
       <c r="AF15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG15" t="n">
         <v>18</v>
@@ -3128,7 +3195,7 @@
         <v>13</v>
       </c>
       <c r="AJ15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK15" t="n">
         <v>10</v>
@@ -3140,7 +3207,7 @@
         <v>3</v>
       </c>
       <c r="AN15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO15" t="n">
         <v>4</v>
@@ -3155,7 +3222,7 @@
         <v>12</v>
       </c>
       <c r="AS15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT15" t="n">
         <v>3</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-11-2012-13</t>
+          <t>2013-02-11</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>3.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AE16" t="n">
         <v>6</v>
@@ -3313,7 +3380,7 @@
         <v>11</v>
       </c>
       <c r="AK16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL16" t="n">
         <v>30</v>
@@ -3331,7 +3398,7 @@
         <v>24</v>
       </c>
       <c r="AQ16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR16" t="n">
         <v>2</v>
@@ -3346,16 +3413,16 @@
         <v>23</v>
       </c>
       <c r="AV16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW16" t="n">
         <v>2</v>
       </c>
       <c r="AX16" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AY16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ16" t="n">
         <v>15</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-11-2012-13</t>
+          <t>2013-02-11</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>6.2</v>
       </c>
       <c r="AD17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE17" t="n">
         <v>4</v>
@@ -3504,10 +3571,10 @@
         <v>9</v>
       </c>
       <c r="AN17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP17" t="n">
         <v>11</v>
@@ -3519,7 +3586,7 @@
         <v>29</v>
       </c>
       <c r="AS17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT17" t="n">
         <v>30</v>
@@ -3534,7 +3601,7 @@
         <v>9</v>
       </c>
       <c r="AX17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
@@ -3549,7 +3616,7 @@
         <v>5</v>
       </c>
       <c r="BC17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-11-2012-13</t>
+          <t>2013-02-11</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E18" t="n">
         <v>25</v>
       </c>
       <c r="F18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="H18" t="n">
         <v>48.2</v>
@@ -3596,73 +3663,73 @@
         <v>37.6</v>
       </c>
       <c r="J18" t="n">
-        <v>86.90000000000001</v>
+        <v>86.8</v>
       </c>
       <c r="K18" t="n">
-        <v>0.432</v>
+        <v>0.433</v>
       </c>
       <c r="L18" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="M18" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="N18" t="n">
-        <v>0.349</v>
+        <v>0.353</v>
       </c>
       <c r="O18" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="P18" t="n">
         <v>21.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.735</v>
+        <v>0.738</v>
       </c>
       <c r="R18" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="S18" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="T18" t="n">
         <v>43.5</v>
       </c>
       <c r="U18" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="V18" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="W18" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="X18" t="n">
         <v>7.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z18" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AA18" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AB18" t="n">
-        <v>97.5</v>
+        <v>97.7</v>
       </c>
       <c r="AC18" t="n">
-        <v>-1.1</v>
+        <v>-0.9</v>
       </c>
       <c r="AD18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE18" t="n">
         <v>16</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG18" t="n">
         <v>16</v>
@@ -3680,13 +3747,13 @@
         <v>26</v>
       </c>
       <c r="AL18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM18" t="n">
         <v>19</v>
       </c>
       <c r="AN18" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AO18" t="n">
         <v>23</v>
@@ -3701,25 +3768,25 @@
         <v>3</v>
       </c>
       <c r="AS18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU18" t="n">
         <v>15</v>
       </c>
       <c r="AV18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW18" t="n">
         <v>7</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>6</v>
       </c>
       <c r="AX18" t="n">
         <v>1</v>
       </c>
       <c r="AY18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ18" t="n">
         <v>10</v>
@@ -3728,7 +3795,7 @@
         <v>17</v>
       </c>
       <c r="BB18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC18" t="n">
         <v>17</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-11-2012-13</t>
+          <t>2013-02-11</t>
         </is>
       </c>
     </row>
@@ -3760,61 +3827,61 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F19" t="n">
         <v>30</v>
       </c>
       <c r="G19" t="n">
-        <v>0.388</v>
+        <v>0.375</v>
       </c>
       <c r="H19" t="n">
         <v>48.1</v>
       </c>
       <c r="I19" t="n">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="J19" t="n">
-        <v>81.3</v>
+        <v>81.5</v>
       </c>
       <c r="K19" t="n">
-        <v>0.439</v>
+        <v>0.437</v>
       </c>
       <c r="L19" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="M19" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="N19" t="n">
-        <v>0.302</v>
+        <v>0.298</v>
       </c>
       <c r="O19" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="P19" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.73</v>
+        <v>0.729</v>
       </c>
       <c r="R19" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="S19" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="T19" t="n">
-        <v>43.2</v>
+        <v>43.3</v>
       </c>
       <c r="U19" t="n">
         <v>21.9</v>
       </c>
       <c r="V19" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="W19" t="n">
         <v>7.9</v>
@@ -3829,25 +3896,25 @@
         <v>18.3</v>
       </c>
       <c r="AA19" t="n">
-        <v>22.5</v>
+        <v>22.7</v>
       </c>
       <c r="AB19" t="n">
-        <v>95.2</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AC19" t="n">
-        <v>-2.1</v>
+        <v>-2.3</v>
       </c>
       <c r="AD19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE19" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AF19" t="n">
         <v>21</v>
       </c>
       <c r="AG19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH19" t="n">
         <v>27</v>
@@ -3856,10 +3923,10 @@
         <v>26</v>
       </c>
       <c r="AJ19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL19" t="n">
         <v>28</v>
@@ -3871,7 +3938,7 @@
         <v>30</v>
       </c>
       <c r="AO19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP19" t="n">
         <v>6</v>
@@ -3880,19 +3947,19 @@
         <v>24</v>
       </c>
       <c r="AR19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS19" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AT19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU19" t="n">
         <v>18</v>
       </c>
       <c r="AV19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW19" t="n">
         <v>15</v>
@@ -3901,7 +3968,7 @@
         <v>18</v>
       </c>
       <c r="AY19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ19" t="n">
         <v>4</v>
@@ -3913,7 +3980,7 @@
         <v>20</v>
       </c>
       <c r="BC19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-11-2012-13</t>
+          <t>2013-02-11</t>
         </is>
       </c>
     </row>
@@ -3942,61 +4009,61 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F20" t="n">
         <v>34</v>
       </c>
       <c r="G20" t="n">
-        <v>0.346</v>
+        <v>0.333</v>
       </c>
       <c r="H20" t="n">
         <v>48.4</v>
       </c>
       <c r="I20" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="J20" t="n">
         <v>79.8</v>
       </c>
       <c r="K20" t="n">
-        <v>0.453</v>
+        <v>0.452</v>
       </c>
       <c r="L20" t="n">
         <v>6.9</v>
       </c>
       <c r="M20" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="N20" t="n">
-        <v>0.375</v>
+        <v>0.373</v>
       </c>
       <c r="O20" t="n">
         <v>14.8</v>
       </c>
       <c r="P20" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.766</v>
+        <v>0.764</v>
       </c>
       <c r="R20" t="n">
         <v>11.1</v>
       </c>
       <c r="S20" t="n">
-        <v>30</v>
+        <v>29.8</v>
       </c>
       <c r="T20" t="n">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="U20" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="V20" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="W20" t="n">
         <v>6.4</v>
@@ -4005,22 +4072,22 @@
         <v>5.4</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AB20" t="n">
-        <v>94</v>
+        <v>93.8</v>
       </c>
       <c r="AC20" t="n">
-        <v>-3.7</v>
+        <v>-4.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE20" t="n">
         <v>25</v>
@@ -4032,7 +4099,7 @@
         <v>25</v>
       </c>
       <c r="AH20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI20" t="n">
         <v>24</v>
@@ -4041,7 +4108,7 @@
         <v>27</v>
       </c>
       <c r="AK20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL20" t="n">
         <v>15</v>
@@ -4056,19 +4123,19 @@
         <v>25</v>
       </c>
       <c r="AP20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR20" t="n">
         <v>17</v>
       </c>
       <c r="AS20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT20" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AU20" t="n">
         <v>22</v>
@@ -4080,10 +4147,10 @@
         <v>29</v>
       </c>
       <c r="AX20" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AY20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ20" t="n">
         <v>22</v>
@@ -4095,7 +4162,7 @@
         <v>25</v>
       </c>
       <c r="BC20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-11-2012-13</t>
+          <t>2013-02-11</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>4.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AE21" t="n">
         <v>6</v>
@@ -4214,16 +4281,16 @@
         <v>5</v>
       </c>
       <c r="AH21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI21" t="n">
         <v>16</v>
       </c>
       <c r="AJ21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
@@ -4241,19 +4308,19 @@
         <v>23</v>
       </c>
       <c r="AQ21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR21" t="n">
         <v>20</v>
       </c>
       <c r="AS21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT21" t="n">
         <v>23</v>
       </c>
       <c r="AU21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV21" t="n">
         <v>1</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-11-2012-13</t>
+          <t>2013-02-11</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>9.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4396,7 +4463,7 @@
         <v>2</v>
       </c>
       <c r="AH22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI22" t="n">
         <v>5</v>
@@ -4429,10 +4496,10 @@
         <v>25</v>
       </c>
       <c r="AS22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU22" t="n">
         <v>16</v>
@@ -4441,7 +4508,7 @@
         <v>29</v>
       </c>
       <c r="AW22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX22" t="n">
         <v>2</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-11-2012-13</t>
+          <t>2013-02-11</t>
         </is>
       </c>
     </row>
@@ -4566,16 +4633,16 @@
         <v>-4.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AE23" t="n">
         <v>28</v>
       </c>
       <c r="AF23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG23" t="n">
         <v>28</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>29</v>
       </c>
       <c r="AH23" t="n">
         <v>22</v>
@@ -4587,7 +4654,7 @@
         <v>7</v>
       </c>
       <c r="AK23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL23" t="n">
         <v>17</v>
@@ -4620,7 +4687,7 @@
         <v>5</v>
       </c>
       <c r="AV23" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AW23" t="n">
         <v>30</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-11-2012-13</t>
+          <t>2013-02-11</t>
         </is>
       </c>
     </row>
@@ -4670,22 +4737,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E24" t="n">
         <v>22</v>
       </c>
       <c r="F24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G24" t="n">
-        <v>0.44</v>
+        <v>0.449</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
       </c>
       <c r="I24" t="n">
-        <v>37.2</v>
+        <v>37.3</v>
       </c>
       <c r="J24" t="n">
         <v>84.09999999999999</v>
@@ -4700,7 +4767,7 @@
         <v>17.5</v>
       </c>
       <c r="N24" t="n">
-        <v>0.351</v>
+        <v>0.348</v>
       </c>
       <c r="O24" t="n">
         <v>11.7</v>
@@ -4709,28 +4776,28 @@
         <v>16.3</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.717</v>
+        <v>0.718</v>
       </c>
       <c r="R24" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S24" t="n">
-        <v>30.7</v>
+        <v>30.9</v>
       </c>
       <c r="T24" t="n">
-        <v>41.5</v>
+        <v>41.6</v>
       </c>
       <c r="U24" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="V24" t="n">
         <v>12.9</v>
       </c>
       <c r="W24" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X24" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y24" t="n">
         <v>4.5</v>
@@ -4745,10 +4812,10 @@
         <v>92.3</v>
       </c>
       <c r="AC24" t="n">
-        <v>-3.1</v>
+        <v>-2.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE24" t="n">
         <v>19</v>
@@ -4772,13 +4839,13 @@
         <v>19</v>
       </c>
       <c r="AL24" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AM24" t="n">
         <v>23</v>
       </c>
       <c r="AN24" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4790,10 +4857,10 @@
         <v>25</v>
       </c>
       <c r="AR24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT24" t="n">
         <v>19</v>
@@ -4808,10 +4875,10 @@
         <v>21</v>
       </c>
       <c r="AX24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ24" t="n">
         <v>6</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-11-2012-13</t>
+          <t>2013-02-11</t>
         </is>
       </c>
     </row>
@@ -4930,10 +4997,10 @@
         <v>-5.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF25" t="n">
         <v>26</v>
@@ -4954,7 +5021,7 @@
         <v>18</v>
       </c>
       <c r="AL25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM25" t="n">
         <v>24</v>
@@ -4975,7 +5042,7 @@
         <v>16</v>
       </c>
       <c r="AS25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT25" t="n">
         <v>24</v>
@@ -4984,19 +5051,19 @@
         <v>19</v>
       </c>
       <c r="AV25" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AW25" t="n">
         <v>17</v>
       </c>
       <c r="AX25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY25" t="n">
         <v>18</v>
       </c>
       <c r="AZ25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA25" t="n">
         <v>28</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-11-2012-13</t>
+          <t>2013-02-11</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-2.2</v>
       </c>
       <c r="AD26" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AE26" t="n">
         <v>16</v>
@@ -5127,7 +5194,7 @@
         <v>5</v>
       </c>
       <c r="AI26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ26" t="n">
         <v>15</v>
@@ -5145,7 +5212,7 @@
         <v>26</v>
       </c>
       <c r="AO26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP26" t="n">
         <v>21</v>
@@ -5157,10 +5224,10 @@
         <v>14</v>
       </c>
       <c r="AS26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AT26" t="n">
         <v>16</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>17</v>
       </c>
       <c r="AU26" t="n">
         <v>21</v>
@@ -5187,7 +5254,7 @@
         <v>14</v>
       </c>
       <c r="BC26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-11-2012-13</t>
+          <t>2013-02-11</t>
         </is>
       </c>
     </row>
@@ -5294,31 +5361,31 @@
         <v>-6.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE27" t="n">
         <v>22</v>
       </c>
       <c r="AF27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG27" t="n">
         <v>24</v>
       </c>
       <c r="AH27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ27" t="n">
         <v>9</v>
       </c>
       <c r="AK27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM27" t="n">
         <v>20</v>
@@ -5345,7 +5412,7 @@
         <v>27</v>
       </c>
       <c r="AU27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AV27" t="n">
         <v>19</v>
@@ -5366,7 +5433,7 @@
         <v>15</v>
       </c>
       <c r="BB27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC27" t="n">
         <v>29</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-11-2012-13</t>
+          <t>2013-02-11</t>
         </is>
       </c>
     </row>
@@ -5398,25 +5465,25 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E28" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F28" t="n">
         <v>12</v>
       </c>
       <c r="G28" t="n">
-        <v>0.774</v>
+        <v>0.769</v>
       </c>
       <c r="H28" t="n">
         <v>48.5</v>
       </c>
       <c r="I28" t="n">
-        <v>39.6</v>
+        <v>39.7</v>
       </c>
       <c r="J28" t="n">
-        <v>81.2</v>
+        <v>81.3</v>
       </c>
       <c r="K28" t="n">
         <v>0.488</v>
@@ -5425,37 +5492,37 @@
         <v>8.6</v>
       </c>
       <c r="M28" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="N28" t="n">
-        <v>0.386</v>
+        <v>0.385</v>
       </c>
       <c r="O28" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="P28" t="n">
         <v>20.8</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.791</v>
+        <v>0.79</v>
       </c>
       <c r="R28" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="S28" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="T28" t="n">
-        <v>40.8</v>
+        <v>41.1</v>
       </c>
       <c r="U28" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="V28" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W28" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X28" t="n">
         <v>5.1</v>
@@ -5467,16 +5534,16 @@
         <v>17.3</v>
       </c>
       <c r="AA28" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>104.3</v>
+        <v>104.4</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5488,7 +5555,7 @@
         <v>1</v>
       </c>
       <c r="AH28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI28" t="n">
         <v>2</v>
@@ -5506,7 +5573,7 @@
         <v>6</v>
       </c>
       <c r="AN28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AO28" t="n">
         <v>19</v>
@@ -5515,28 +5582,28 @@
         <v>22</v>
       </c>
       <c r="AQ28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR28" t="n">
         <v>30</v>
       </c>
       <c r="AS28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT28" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AU28" t="n">
         <v>1</v>
       </c>
       <c r="AV28" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AW28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-11-2012-13</t>
+          <t>2013-02-11</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-1.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AE29" t="n">
         <v>22</v>
@@ -5670,7 +5737,7 @@
         <v>23</v>
       </c>
       <c r="AH29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI29" t="n">
         <v>18</v>
@@ -5682,16 +5749,16 @@
         <v>17</v>
       </c>
       <c r="AL29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM29" t="n">
         <v>8</v>
       </c>
       <c r="AN29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP29" t="n">
         <v>16</v>
@@ -5730,7 +5797,7 @@
         <v>19</v>
       </c>
       <c r="BB29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC29" t="n">
         <v>18</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-11-2012-13</t>
+          <t>2013-02-11</t>
         </is>
       </c>
     </row>
@@ -5840,16 +5907,16 @@
         <v>-0.7</v>
       </c>
       <c r="AD30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE30" t="n">
         <v>12</v>
       </c>
       <c r="AF30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH30" t="n">
         <v>13</v>
@@ -5864,7 +5931,7 @@
         <v>14</v>
       </c>
       <c r="AL30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM30" t="n">
         <v>26</v>
@@ -5873,25 +5940,25 @@
         <v>10</v>
       </c>
       <c r="AO30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR30" t="n">
         <v>10</v>
       </c>
       <c r="AS30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT30" t="n">
         <v>18</v>
       </c>
       <c r="AU30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV30" t="n">
         <v>18</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-11-2012-13</t>
+          <t>2013-02-11</t>
         </is>
       </c>
     </row>
@@ -5944,34 +6011,34 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F31" t="n">
         <v>35</v>
       </c>
       <c r="G31" t="n">
-        <v>0.3</v>
+        <v>0.286</v>
       </c>
       <c r="H31" t="n">
         <v>48.7</v>
       </c>
       <c r="I31" t="n">
-        <v>35.3</v>
+        <v>35.1</v>
       </c>
       <c r="J31" t="n">
-        <v>82.59999999999999</v>
+        <v>82.8</v>
       </c>
       <c r="K31" t="n">
-        <v>0.427</v>
+        <v>0.424</v>
       </c>
       <c r="L31" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="M31" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="N31" t="n">
         <v>0.346</v>
@@ -5980,25 +6047,25 @@
         <v>14.4</v>
       </c>
       <c r="P31" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.735</v>
+        <v>0.733</v>
       </c>
       <c r="R31" t="n">
         <v>10.8</v>
       </c>
       <c r="S31" t="n">
-        <v>32.7</v>
+        <v>32.5</v>
       </c>
       <c r="T31" t="n">
-        <v>43.4</v>
+        <v>43.3</v>
       </c>
       <c r="U31" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="V31" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="W31" t="n">
         <v>7.5</v>
@@ -6010,28 +6077,28 @@
         <v>4.9</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AA31" t="n">
         <v>18.7</v>
       </c>
       <c r="AB31" t="n">
-        <v>91.40000000000001</v>
+        <v>91.2</v>
       </c>
       <c r="AC31" t="n">
-        <v>-3.8</v>
+        <v>-4.1</v>
       </c>
       <c r="AD31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF31" t="n">
         <v>26</v>
       </c>
       <c r="AG31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AH31" t="n">
         <v>4</v>
@@ -6040,13 +6107,13 @@
         <v>27</v>
       </c>
       <c r="AJ31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK31" t="n">
         <v>29</v>
       </c>
       <c r="AL31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM31" t="n">
         <v>18</v>
@@ -6064,7 +6131,7 @@
         <v>23</v>
       </c>
       <c r="AR31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS31" t="n">
         <v>7</v>
@@ -6076,7 +6143,7 @@
         <v>20</v>
       </c>
       <c r="AV31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW31" t="n">
         <v>18</v>
@@ -6088,7 +6155,7 @@
         <v>13</v>
       </c>
       <c r="AZ31" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA31" t="n">
         <v>26</v>
@@ -6097,7 +6164,7 @@
         <v>30</v>
       </c>
       <c r="BC31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-11-2012-13</t>
+          <t>2013-02-11</t>
         </is>
       </c>
     </row>
